--- a/public/data/lime/lime_table_republic_of_the_congo.xlsx
+++ b/public/data/lime/lime_table_republic_of_the_congo.xlsx
@@ -1354,16 +1354,16 @@
         <v>88</v>
       </c>
       <c r="D2" t="n">
-        <v>2.01</v>
+        <v>1.67</v>
       </c>
       <c r="E2" t="n">
-        <v>1.09</v>
+        <v>0.52</v>
       </c>
       <c r="F2" t="n">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1372,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.46</v>
+        <v>0.98</v>
       </c>
       <c r="K2" t="n">
-        <v>0.46</v>
+        <v>0.03</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -1401,16 +1401,16 @@
         <v>89</v>
       </c>
       <c r="D3" t="n">
-        <v>0.85</v>
+        <v>0.51</v>
       </c>
       <c r="E3" t="n">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1419,16 +1419,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.15</v>
+        <v>0.68</v>
       </c>
       <c r="K3" t="n">
-        <v>0.21</v>
+        <v>0.01</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -1448,16 +1448,16 @@
         <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>1.62</v>
+        <v>1.2</v>
       </c>
       <c r="E4" t="n">
-        <v>0.73</v>
+        <v>0.3</v>
       </c>
       <c r="F4" t="n">
-        <v>0.23</v>
+        <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.52</v>
+        <v>1.04</v>
       </c>
       <c r="K4" t="n">
-        <v>0.58</v>
+        <v>0.11</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1495,13 +1495,13 @@
         <v>91</v>
       </c>
       <c r="D5" t="n">
-        <v>2.82</v>
+        <v>2.44</v>
       </c>
       <c r="E5" t="n">
-        <v>1.82</v>
+        <v>1.09</v>
       </c>
       <c r="F5" t="n">
-        <v>0.77</v>
+        <v>0.17</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1513,13 +1513,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>2.52</v>
       </c>
       <c r="K5" t="n">
-        <v>2.13</v>
+        <v>1.35</v>
       </c>
       <c r="L5" t="n">
-        <v>1.26</v>
+        <v>0.25</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1542,16 +1542,16 @@
         <v>92</v>
       </c>
       <c r="D6" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="E6" t="n">
-        <v>1.76</v>
+        <v>1.16</v>
       </c>
       <c r="F6" t="n">
-        <v>0.79</v>
+        <v>0.34</v>
       </c>
       <c r="G6" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1560,16 +1560,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>2.07</v>
       </c>
       <c r="K6" t="n">
-        <v>1.39</v>
+        <v>0.62</v>
       </c>
       <c r="L6" t="n">
-        <v>0.34</v>
+        <v>0.02</v>
       </c>
       <c r="M6" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1589,16 +1589,16 @@
         <v>93</v>
       </c>
       <c r="D7" t="n">
-        <v>0.94</v>
+        <v>0.57</v>
       </c>
       <c r="E7" t="n">
-        <v>0.27</v>
+        <v>0.05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1607,16 +1607,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.95</v>
+        <v>0.51</v>
       </c>
       <c r="K7" t="n">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.85</v>
+        <v>1.55</v>
       </c>
       <c r="K8" t="n">
-        <v>1.55</v>
+        <v>0.04</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1683,13 +1683,13 @@
         <v>96</v>
       </c>
       <c r="D9" t="n">
-        <v>3.09</v>
+        <v>2.5</v>
       </c>
       <c r="E9" t="n">
-        <v>2.31</v>
+        <v>1.18</v>
       </c>
       <c r="F9" t="n">
-        <v>1.44</v>
+        <v>0.32</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1701,13 +1701,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.74</v>
+        <v>3.53</v>
       </c>
       <c r="K9" t="n">
-        <v>3.32</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.69</v>
+        <v>0.13</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1730,16 +1730,16 @@
         <v>97</v>
       </c>
       <c r="D10" t="n">
-        <v>4.69</v>
+        <v>2.84</v>
       </c>
       <c r="E10" t="n">
-        <v>3.68</v>
+        <v>0.36</v>
       </c>
       <c r="F10" t="n">
-        <v>2.56</v>
+        <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1748,16 +1748,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.46</v>
+        <v>1.53</v>
       </c>
       <c r="K10" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>98</v>
       </c>
       <c r="D11" t="n">
-        <v>2.84</v>
+        <v>2.44</v>
       </c>
       <c r="E11" t="n">
-        <v>2.26</v>
+        <v>1.43</v>
       </c>
       <c r="F11" t="n">
-        <v>1.61</v>
+        <v>0.58</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1824,37 +1824,37 @@
         <v>99</v>
       </c>
       <c r="D12" t="n">
-        <v>4.61</v>
+        <v>2.67</v>
       </c>
       <c r="E12" t="n">
-        <v>3.51</v>
+        <v>0.23</v>
       </c>
       <c r="F12" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>5.69</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>3.45</v>
+        <v>0.28</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>3.98</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1871,13 +1871,13 @@
         <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>4.91</v>
+        <v>4.67</v>
       </c>
       <c r="E13" t="n">
-        <v>4.25</v>
+        <v>3.74</v>
       </c>
       <c r="F13" t="n">
-        <v>3.48</v>
+        <v>2.67</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1889,16 +1889,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.63</v>
+        <v>2.35</v>
       </c>
       <c r="K13" t="n">
-        <v>1.92</v>
+        <v>1.38</v>
       </c>
       <c r="L13" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1918,31 +1918,31 @@
         <v>101</v>
       </c>
       <c r="D14" t="n">
-        <v>2.79</v>
+        <v>1.99</v>
       </c>
       <c r="E14" t="n">
-        <v>1.99</v>
+        <v>0.67</v>
       </c>
       <c r="F14" t="n">
-        <v>1.11</v>
+        <v>0.16</v>
       </c>
       <c r="G14" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>5.89</v>
+        <v>4.44</v>
       </c>
       <c r="K14" t="n">
-        <v>3.91</v>
+        <v>0.82</v>
       </c>
       <c r="L14" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1965,13 +1965,13 @@
         <v>103</v>
       </c>
       <c r="D15" t="n">
-        <v>3.99</v>
+        <v>3.69</v>
       </c>
       <c r="E15" t="n">
-        <v>3.22</v>
+        <v>2.66</v>
       </c>
       <c r="F15" t="n">
-        <v>2.42</v>
+        <v>1.77</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1983,16 +1983,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.11</v>
+        <v>1.8</v>
       </c>
       <c r="K15" t="n">
-        <v>1.32</v>
+        <v>0.77</v>
       </c>
       <c r="L15" t="n">
-        <v>0.59</v>
+        <v>0.24</v>
       </c>
       <c r="M15" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -2012,13 +2012,13 @@
         <v>104</v>
       </c>
       <c r="D16" t="n">
-        <v>2.64</v>
+        <v>2.35</v>
       </c>
       <c r="E16" t="n">
-        <v>1.95</v>
+        <v>1.47</v>
       </c>
       <c r="F16" t="n">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2030,13 +2030,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>2.91</v>
       </c>
       <c r="K16" t="n">
-        <v>1.98</v>
+        <v>0.92</v>
       </c>
       <c r="L16" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>105</v>
       </c>
       <c r="D17" t="n">
-        <v>2.58</v>
+        <v>2.24</v>
       </c>
       <c r="E17" t="n">
-        <v>1.83</v>
+        <v>1.13</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0.41</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -2106,16 +2106,16 @@
         <v>107</v>
       </c>
       <c r="D18" t="n">
-        <v>2.08</v>
+        <v>1.78</v>
       </c>
       <c r="E18" t="n">
-        <v>1.28</v>
+        <v>0.76</v>
       </c>
       <c r="F18" t="n">
-        <v>0.51</v>
+        <v>0.16</v>
       </c>
       <c r="G18" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2124,16 +2124,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.69</v>
+        <v>1.09</v>
       </c>
       <c r="K18" t="n">
-        <v>0.64</v>
+        <v>0.03</v>
       </c>
       <c r="L18" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2153,37 +2153,37 @@
         <v>108</v>
       </c>
       <c r="D19" t="n">
-        <v>1.37</v>
+        <v>0.83</v>
       </c>
       <c r="E19" t="n">
-        <v>0.61</v>
+        <v>0.13</v>
       </c>
       <c r="F19" t="n">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="G19" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="L19" t="n">
         <v>0.01</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.26</v>
-      </c>
       <c r="M19" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2200,16 +2200,16 @@
         <v>109</v>
       </c>
       <c r="D20" t="n">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="E20" t="n">
-        <v>1.26</v>
+        <v>0.78</v>
       </c>
       <c r="F20" t="n">
-        <v>0.61</v>
+        <v>0.27</v>
       </c>
       <c r="G20" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2218,19 +2218,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.64</v>
+        <v>1.03</v>
       </c>
       <c r="K20" t="n">
-        <v>0.65</v>
+        <v>0.13</v>
       </c>
       <c r="L20" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="M20" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -2247,16 +2247,16 @@
         <v>110</v>
       </c>
       <c r="D21" t="n">
-        <v>1.54</v>
+        <v>1.24</v>
       </c>
       <c r="E21" t="n">
-        <v>0.83</v>
+        <v>0.39</v>
       </c>
       <c r="F21" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="G21" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2265,16 +2265,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.22</v>
+        <v>0.84</v>
       </c>
       <c r="K21" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2294,13 +2294,13 @@
         <v>112</v>
       </c>
       <c r="D22" t="n">
-        <v>5.26</v>
+        <v>5.08</v>
       </c>
       <c r="E22" t="n">
-        <v>4.74</v>
+        <v>4.36</v>
       </c>
       <c r="F22" t="n">
-        <v>4.14</v>
+        <v>3.51</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2312,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>4.87</v>
+        <v>4.51</v>
       </c>
       <c r="K22" t="n">
-        <v>4.05</v>
+        <v>3.29</v>
       </c>
       <c r="L22" t="n">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -2341,13 +2341,13 @@
         <v>113</v>
       </c>
       <c r="D23" t="n">
-        <v>3.7</v>
+        <v>3.44</v>
       </c>
       <c r="E23" t="n">
-        <v>2.94</v>
+        <v>2.39</v>
       </c>
       <c r="F23" t="n">
-        <v>2.06</v>
+        <v>1.23</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2388,16 +2388,16 @@
         <v>114</v>
       </c>
       <c r="D24" t="n">
-        <v>2.22</v>
+        <v>1.85</v>
       </c>
       <c r="E24" t="n">
-        <v>1.42</v>
+        <v>0.73</v>
       </c>
       <c r="F24" t="n">
-        <v>0.63</v>
+        <v>0.12</v>
       </c>
       <c r="G24" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2406,16 +2406,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.91</v>
+        <v>0.55</v>
       </c>
       <c r="K24" t="n">
-        <v>0.23</v>
+        <v>0.04</v>
       </c>
       <c r="L24" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2435,13 +2435,13 @@
         <v>115</v>
       </c>
       <c r="D25" t="n">
-        <v>5.15</v>
+        <v>4.91</v>
       </c>
       <c r="E25" t="n">
-        <v>4.57</v>
+        <v>4.06</v>
       </c>
       <c r="F25" t="n">
-        <v>3.89</v>
+        <v>3.07</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2453,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>4.16</v>
+        <v>3.68</v>
       </c>
       <c r="K25" t="n">
-        <v>3.39</v>
+        <v>2.36</v>
       </c>
       <c r="L25" t="n">
-        <v>2.49</v>
+        <v>0.96</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -2482,34 +2482,34 @@
         <v>117</v>
       </c>
       <c r="D26" t="n">
-        <v>3.29</v>
+        <v>2.02</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="F26" t="n">
-        <v>0.81</v>
+        <v>0.01</v>
       </c>
       <c r="G26" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5.9</v>
+        <v>3.37</v>
       </c>
       <c r="K26" t="n">
-        <v>3.54</v>
+        <v>0.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2529,37 +2529,37 @@
         <v>118</v>
       </c>
       <c r="D27" t="n">
-        <v>4.37</v>
+        <v>2.8</v>
       </c>
       <c r="E27" t="n">
-        <v>3.49</v>
+        <v>0.48</v>
       </c>
       <c r="F27" t="n">
-        <v>2.54</v>
+        <v>0.05</v>
       </c>
       <c r="G27" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>4.2</v>
+        <v>2.72</v>
       </c>
       <c r="K27" t="n">
-        <v>2.08</v>
+        <v>0.2</v>
       </c>
       <c r="L27" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -2576,31 +2576,31 @@
         <v>119</v>
       </c>
       <c r="D28" t="n">
-        <v>4.79</v>
+        <v>2.85</v>
       </c>
       <c r="E28" t="n">
-        <v>3.71</v>
+        <v>0.24</v>
       </c>
       <c r="F28" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>7.19</v>
+        <v>4.34</v>
       </c>
       <c r="K28" t="n">
-        <v>4.54</v>
+        <v>0.39</v>
       </c>
       <c r="L28" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2623,13 +2623,13 @@
         <v>121</v>
       </c>
       <c r="D29" t="n">
-        <v>3.04</v>
+        <v>2.74</v>
       </c>
       <c r="E29" t="n">
-        <v>2.19</v>
+        <v>1.55</v>
       </c>
       <c r="F29" t="n">
-        <v>1.22</v>
+        <v>0.4</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2641,10 +2641,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.56</v>
+        <v>1.21</v>
       </c>
       <c r="K29" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>122</v>
       </c>
       <c r="D30" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="E30" t="n">
-        <v>0.99</v>
+        <v>0.62</v>
       </c>
       <c r="F30" t="n">
-        <v>0.33</v>
+        <v>0.09</v>
       </c>
       <c r="G30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2688,16 +2688,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.07</v>
+        <v>0.75</v>
       </c>
       <c r="K30" t="n">
-        <v>0.26</v>
+        <v>0.07</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2717,16 +2717,16 @@
         <v>123</v>
       </c>
       <c r="D31" t="n">
-        <v>1.74</v>
+        <v>1.48</v>
       </c>
       <c r="E31" t="n">
-        <v>1.02</v>
+        <v>0.61</v>
       </c>
       <c r="F31" t="n">
-        <v>0.44</v>
+        <v>0.12</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2735,16 +2735,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.93</v>
+        <v>0.58</v>
       </c>
       <c r="K31" t="n">
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
       <c r="L31" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2764,16 +2764,16 @@
         <v>124</v>
       </c>
       <c r="D32" t="n">
-        <v>1.59</v>
+        <v>1.3</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8</v>
+        <v>0.38</v>
       </c>
       <c r="F32" t="n">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="G32" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2782,16 +2782,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.26</v>
+        <v>0.91</v>
       </c>
       <c r="K32" t="n">
-        <v>0.39</v>
+        <v>0.11</v>
       </c>
       <c r="L32" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2811,13 +2811,13 @@
         <v>125</v>
       </c>
       <c r="D33" t="n">
-        <v>4.67</v>
+        <v>4.44</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>3.51</v>
       </c>
       <c r="F33" t="n">
-        <v>3.22</v>
+        <v>2.42</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -2858,16 +2858,16 @@
         <v>126</v>
       </c>
       <c r="D34" t="n">
-        <v>2.68</v>
+        <v>2.38</v>
       </c>
       <c r="E34" t="n">
-        <v>1.89</v>
+        <v>1.31</v>
       </c>
       <c r="F34" t="n">
-        <v>1.09</v>
+        <v>0.4</v>
       </c>
       <c r="G34" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2876,16 +2876,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.89</v>
+        <v>0.56</v>
       </c>
       <c r="K34" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="L34" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2905,34 +2905,34 @@
         <v>128</v>
       </c>
       <c r="D35" t="n">
-        <v>3.29</v>
+        <v>2.67</v>
       </c>
       <c r="E35" t="n">
-        <v>2.42</v>
+        <v>1.26</v>
       </c>
       <c r="F35" t="n">
-        <v>1.45</v>
+        <v>0.49</v>
       </c>
       <c r="G35" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>4.39</v>
+        <v>3.76</v>
       </c>
       <c r="K35" t="n">
-        <v>3.32</v>
+        <v>2.09</v>
       </c>
       <c r="L35" t="n">
-        <v>2.11</v>
+        <v>1.1</v>
       </c>
       <c r="M35" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2952,16 +2952,16 @@
         <v>129</v>
       </c>
       <c r="D36" t="n">
-        <v>4.4</v>
+        <v>3.99</v>
       </c>
       <c r="E36" t="n">
-        <v>3.56</v>
+        <v>2.71</v>
       </c>
       <c r="F36" t="n">
-        <v>2.62</v>
+        <v>1.52</v>
       </c>
       <c r="G36" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2970,16 +2970,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>3.94</v>
+        <v>3.33</v>
       </c>
       <c r="K36" t="n">
-        <v>2.87</v>
+        <v>1.72</v>
       </c>
       <c r="L36" t="n">
-        <v>1.75</v>
+        <v>0.68</v>
       </c>
       <c r="M36" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2999,37 +2999,37 @@
         <v>130</v>
       </c>
       <c r="D37" t="n">
-        <v>3.96</v>
+        <v>3.1</v>
       </c>
       <c r="E37" t="n">
-        <v>2.94</v>
+        <v>1.37</v>
       </c>
       <c r="F37" t="n">
-        <v>1.81</v>
+        <v>0.62</v>
       </c>
       <c r="G37" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>3.7</v>
+        <v>2.95</v>
       </c>
       <c r="K37" t="n">
-        <v>2.46</v>
+        <v>1.28</v>
       </c>
       <c r="L37" t="n">
-        <v>1.29</v>
+        <v>0.63</v>
       </c>
       <c r="M37" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3046,13 +3046,13 @@
         <v>131</v>
       </c>
       <c r="D38" t="n">
-        <v>6.03</v>
+        <v>5.72</v>
       </c>
       <c r="E38" t="n">
-        <v>5.24</v>
+        <v>4.58</v>
       </c>
       <c r="F38" t="n">
-        <v>4.32</v>
+        <v>3.28</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3064,13 +3064,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>4.83</v>
+        <v>4.31</v>
       </c>
       <c r="K38" t="n">
-        <v>3.9</v>
+        <v>2.79</v>
       </c>
       <c r="L38" t="n">
-        <v>2.82</v>
+        <v>1.3</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -3140,13 +3140,13 @@
         <v>134</v>
       </c>
       <c r="D40" t="n">
-        <v>3.53</v>
+        <v>3.31</v>
       </c>
       <c r="E40" t="n">
-        <v>2.73</v>
+        <v>2.26</v>
       </c>
       <c r="F40" t="n">
-        <v>1.81</v>
+        <v>1.18</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3158,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.72</v>
+        <v>1.45</v>
       </c>
       <c r="K40" t="n">
-        <v>0.94</v>
+        <v>0.55</v>
       </c>
       <c r="L40" t="n">
-        <v>0.34</v>
+        <v>0.1</v>
       </c>
       <c r="M40" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -3187,13 +3187,13 @@
         <v>135</v>
       </c>
       <c r="D41" t="n">
-        <v>4.41</v>
+        <v>4.21</v>
       </c>
       <c r="E41" t="n">
-        <v>3.67</v>
+        <v>3.25</v>
       </c>
       <c r="F41" t="n">
-        <v>2.82</v>
+        <v>2.15</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3205,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>4.31</v>
+        <v>3.73</v>
       </c>
       <c r="K41" t="n">
-        <v>3.29</v>
+        <v>2.05</v>
       </c>
       <c r="L41" t="n">
-        <v>2.1</v>
+        <v>0.64</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>136</v>
       </c>
       <c r="D42" t="n">
-        <v>4.34</v>
+        <v>4.1</v>
       </c>
       <c r="E42" t="n">
-        <v>3.51</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
-        <v>2.54</v>
+        <v>1.79</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3252,13 +3252,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>3.88</v>
+        <v>3.49</v>
       </c>
       <c r="K42" t="n">
-        <v>2.87</v>
+        <v>2.09</v>
       </c>
       <c r="L42" t="n">
-        <v>1.78</v>
+        <v>0.86</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -3281,13 +3281,13 @@
         <v>137</v>
       </c>
       <c r="D43" t="n">
-        <v>4.84</v>
+        <v>4.56</v>
       </c>
       <c r="E43" t="n">
-        <v>4.07</v>
+        <v>3.49</v>
       </c>
       <c r="F43" t="n">
-        <v>3.2</v>
+        <v>2.36</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3299,16 +3299,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>3.91</v>
+        <v>3.49</v>
       </c>
       <c r="K43" t="n">
-        <v>3</v>
+        <v>2.17</v>
       </c>
       <c r="L43" t="n">
-        <v>1.99</v>
+        <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>138</v>
       </c>
       <c r="D44" t="n">
-        <v>3.61</v>
+        <v>3.39</v>
       </c>
       <c r="E44" t="n">
-        <v>2.78</v>
+        <v>2.3</v>
       </c>
       <c r="F44" t="n">
-        <v>1.81</v>
+        <v>1.14</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3346,13 +3346,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3.05</v>
+        <v>2.73</v>
       </c>
       <c r="K44" t="n">
-        <v>2.02</v>
+        <v>1.33</v>
       </c>
       <c r="L44" t="n">
-        <v>0.83</v>
+        <v>0.17</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -3375,16 +3375,16 @@
         <v>139</v>
       </c>
       <c r="D45" t="n">
-        <v>3.77</v>
+        <v>3.33</v>
       </c>
       <c r="E45" t="n">
-        <v>2.91</v>
+        <v>2.22</v>
       </c>
       <c r="F45" t="n">
-        <v>2.14</v>
+        <v>1.33</v>
       </c>
       <c r="G45" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3393,16 +3393,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>3.61</v>
+        <v>2.93</v>
       </c>
       <c r="K45" t="n">
-        <v>2.51</v>
+        <v>1.41</v>
       </c>
       <c r="L45" t="n">
-        <v>1.46</v>
+        <v>0.58</v>
       </c>
       <c r="M45" t="n">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -3422,16 +3422,16 @@
         <v>140</v>
       </c>
       <c r="D46" t="n">
-        <v>4.29</v>
+        <v>3.97</v>
       </c>
       <c r="E46" t="n">
-        <v>3.46</v>
+        <v>2.84</v>
       </c>
       <c r="F46" t="n">
-        <v>2.57</v>
+        <v>1.8</v>
       </c>
       <c r="G46" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3440,19 +3440,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>3.48</v>
+        <v>2.83</v>
       </c>
       <c r="K46" t="n">
-        <v>2.43</v>
+        <v>1.43</v>
       </c>
       <c r="L46" t="n">
-        <v>1.45</v>
+        <v>0.62</v>
       </c>
       <c r="M46" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>142</v>
       </c>
       <c r="D47" t="n">
-        <v>3.12</v>
+        <v>2.47</v>
       </c>
       <c r="E47" t="n">
-        <v>2.26</v>
+        <v>0.95</v>
       </c>
       <c r="F47" t="n">
-        <v>1.29</v>
+        <v>0.16</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -3487,13 +3487,13 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>6.21</v>
+        <v>4.57</v>
       </c>
       <c r="K47" t="n">
-        <v>4.01</v>
+        <v>0.69</v>
       </c>
       <c r="L47" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -3516,13 +3516,13 @@
         <v>143</v>
       </c>
       <c r="D48" t="n">
-        <v>2.64</v>
+        <v>2.35</v>
       </c>
       <c r="E48" t="n">
-        <v>1.74</v>
+        <v>1.14</v>
       </c>
       <c r="F48" t="n">
-        <v>0.78</v>
+        <v>0.27</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -3534,10 +3534,10 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.62</v>
+        <v>1.27</v>
       </c>
       <c r="K48" t="n">
-        <v>0.49</v>
+        <v>0.09</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>144</v>
       </c>
       <c r="D49" t="n">
-        <v>4.02</v>
+        <v>3.77</v>
       </c>
       <c r="E49" t="n">
-        <v>3.25</v>
+        <v>2.71</v>
       </c>
       <c r="F49" t="n">
-        <v>2.36</v>
+        <v>1.51</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
